--- a/docs/data/Ovinos_faena_produccion.xlsx
+++ b/docs/data/Ovinos_faena_produccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Estadisticas Agropecuarias\INFORME\Producción\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28B5151-FFFF-41BB-BBBB-8304C2E92173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9660588B-B7D9-49E0-B765-738E89389685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{49F3424E-7E5F-4D77-8569-704D2B7125F5}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_12SET_91">[1]cabezas!#REF!</definedName>
@@ -125,6 +124,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -158,12 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1713,30 +1716,6 @@
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="FaenaOvina"/>
-      <sheetName val="19_20"/>
-      <sheetName val="21_22"/>
-      <sheetName val="23_24"/>
-      <sheetName val="cuadros publicación II"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2008,7 +1987,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2043,16 +2022,16 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>191728</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0.8215075523658516</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>2605.4771122503371</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>13.589445006730038</v>
       </c>
     </row>
@@ -2063,16 +2042,16 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>135418</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.77753326736475215</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>2017.4991625990624</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>14.898308663538542</v>
       </c>
     </row>
@@ -2083,16 +2062,16 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>103168.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>0.48287510238105624</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1821.3494512258214</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>17.654123605808181</v>
       </c>
     </row>
@@ -2103,16 +2082,16 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>52591</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.33922153980719133</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>982.68435622765628</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>18.68540921883319</v>
       </c>
     </row>
@@ -2123,16 +2102,16 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>39175</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.34851308232291001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>685.34037092634219</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>17.49432982581601</v>
       </c>
     </row>
@@ -2143,16 +2122,16 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>19744</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0.33053079416531606</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>351.42329416393437</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>17.798991803278685</v>
       </c>
     </row>
@@ -2163,16 +2142,16 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>17826</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.35420172781330639</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>323.93991288145372</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>18.172327660801844</v>
       </c>
     </row>
@@ -2183,16 +2162,16 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>20849</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>0.43301837018562039</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>369.85338477380321</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>17.739622273193113</v>
       </c>
     </row>
@@ -2203,16 +2182,16 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>13900</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>0.52028776978417268</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>232.15260917094645</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>16.701626559060895</v>
       </c>
     </row>
@@ -2223,16 +2202,16 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>48005.75</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.59227800836358147</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>767.43323451721767</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>15.986277362966263</v>
       </c>
     </row>
@@ -2243,16 +2222,16 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>63488.75</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>0.7067984485440334</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>964.98525093767751</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>15.199310916306864</v>
       </c>
     </row>
@@ -2263,16 +2242,16 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>201256.5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>0.86396961091939883</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>2530.4185566542715</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>12.573102268270945</v>
       </c>
     </row>
@@ -2283,16 +2262,16 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>176512</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>0.81406363306744023</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>2289.1610488980918</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>12.968869249105399</v>
       </c>
     </row>
@@ -2303,16 +2282,16 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>140475</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>0.66178323545114792</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>2066.4080829654326</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>14.710148303722603</v>
       </c>
     </row>
@@ -2323,16 +2302,16 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>109590</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>0.40761930833105209</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>1905.7082754244575</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>17.389435855684436</v>
       </c>
     </row>
@@ -2343,16 +2322,16 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>57474</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>0.27447193513588752</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>1050.1785816019637</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>18.27223756136625</v>
       </c>
     </row>
@@ -2363,16 +2342,16 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>37254</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0.20502496376228055</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>727.12396093961934</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>19.518010440210965</v>
       </c>
     </row>
@@ -2383,16 +2362,16 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>23807</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>0.20851010207081952</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>423.09324361935336</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>17.771800042817379</v>
       </c>
     </row>
@@ -2403,16 +2382,16 @@
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>18389</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>0.32579259339822719</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>345.54431718661692</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>18.790816095851703</v>
       </c>
     </row>
@@ -2423,16 +2402,16 @@
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>16968</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>0.39191419141914191</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>309.83669180679789</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>18.26005963029219</v>
       </c>
     </row>
@@ -2443,16 +2422,16 @@
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>19130</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>0.42090956612650288</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>328.64812914081398</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>17.179724471553264</v>
       </c>
     </row>
@@ -2463,16 +2442,16 @@
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>44980</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>0.5937305469097377</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>695.32546084418505</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>15.458547373147734</v>
       </c>
     </row>
@@ -2483,16 +2462,16 @@
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>69333</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>0.73483045591565344</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>958.64792748170169</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>13.826719274828751</v>
       </c>
     </row>
@@ -2503,16 +2482,16 @@
       <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>205087</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>0.86067863882157325</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>2558.2720355385513</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>12.474081904452996</v>
       </c>
     </row>
@@ -2523,16 +2502,16 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>190993</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>0.83</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>2516</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>13</v>
       </c>
     </row>
@@ -2543,16 +2522,16 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>150763</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>0.69</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>2217</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2563,16 +2542,16 @@
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>93028</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0.47</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>1645</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2583,16 +2562,16 @@
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>75621</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0.26</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>1431</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>19</v>
       </c>
     </row>
@@ -2603,16 +2582,16 @@
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>43959</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0.22</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>798</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2623,16 +2602,16 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>24646</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.22</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>474</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>19</v>
       </c>
     </row>
@@ -2643,16 +2622,16 @@
       <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>16611</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>0.32</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>306</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2663,16 +2642,16 @@
       <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>20802</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>0.35</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>388</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>19</v>
       </c>
     </row>
@@ -2683,16 +2662,16 @@
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>23482</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>0.44</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>418</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2703,16 +2682,16 @@
       <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>39144</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>665</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>17</v>
       </c>
     </row>
@@ -2723,16 +2702,16 @@
       <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>60525</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>0.66</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>902</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2743,16 +2722,16 @@
       <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>198944</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>0.83</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>2500</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>13</v>
       </c>
     </row>
@@ -2763,16 +2742,16 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>165258</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>0.78</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>2119</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>13</v>
       </c>
     </row>
@@ -2783,16 +2762,16 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>138454</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>0.61</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>2107</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2803,16 +2782,16 @@
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>107325</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>0.4</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>1883</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2823,16 +2802,16 @@
       <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>60714</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>0.27</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>1094</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2843,16 +2822,16 @@
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>36781</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>0.18</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>692</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>19</v>
       </c>
     </row>
@@ -2863,16 +2842,16 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>22250</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>0.23</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>416</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>19</v>
       </c>
     </row>
@@ -2883,16 +2862,16 @@
       <c r="B44" t="s">
         <v>18</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>23028</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>423</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2903,16 +2882,16 @@
       <c r="B45" t="s">
         <v>13</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>29318</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>0.33</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>536</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2923,16 +2902,16 @@
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>23823</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>0.35</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>428</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>18</v>
       </c>
     </row>
@@ -2943,16 +2922,16 @@
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>47334</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>0.63</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>702</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2963,16 +2942,16 @@
       <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>85860</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>0.68</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>1248</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2983,16 +2962,16 @@
       <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>198555</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>0.84</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>2465</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>12</v>
       </c>
     </row>
@@ -3003,16 +2982,16 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>150721</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>0.78</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>1893</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>13</v>
       </c>
     </row>
@@ -3023,16 +3002,16 @@
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>154784</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>0.6</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>2351</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3043,16 +3022,16 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>128785</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>0.4</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>2196</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>17</v>
       </c>
     </row>
@@ -3063,16 +3042,16 @@
       <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>77733</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>1394</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>18</v>
       </c>
     </row>
@@ -3083,16 +3062,16 @@
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>54683</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>0.25</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>1014</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3103,16 +3082,16 @@
       <c r="B55" t="s">
         <v>11</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>31492</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>0.32</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>560</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>18</v>
       </c>
     </row>
@@ -3123,16 +3102,16 @@
       <c r="B56" t="s">
         <v>18</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>22617</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>430</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3143,16 +3122,16 @@
       <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>28135</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>0.31</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>547</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3163,16 +3142,16 @@
       <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>27419</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>0.47</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>488</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>18</v>
       </c>
     </row>
@@ -3183,16 +3162,16 @@
       <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>42593</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>0.59</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>705</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>17</v>
       </c>
     </row>
@@ -3203,16 +3182,16 @@
       <c r="B60" t="s">
         <v>16</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>65734</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>0.74</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>972</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3223,16 +3202,16 @@
       <c r="B61" t="s">
         <v>17</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>176178</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>0.9</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>2198</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>12</v>
       </c>
     </row>
@@ -3243,16 +3222,16 @@
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>181043</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>76.349999999999994</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>2353</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>13</v>
       </c>
     </row>
@@ -3263,16 +3242,16 @@
       <c r="B63" t="s">
         <v>7</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>141441</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>71.56</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>1988</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>14</v>
       </c>
     </row>
@@ -3283,16 +3262,16 @@
       <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>118858</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>45.98</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>1937</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>16</v>
       </c>
     </row>
@@ -3303,16 +3282,16 @@
       <c r="B65" t="s">
         <v>9</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>87868</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>31.08</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>1551</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>18</v>
       </c>
     </row>
@@ -3323,16 +3302,16 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>64082</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>24.65</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>1193</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3343,16 +3322,16 @@
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>37273</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>26.41</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>722</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3363,16 +3342,16 @@
       <c r="B68" t="s">
         <v>18</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>22839</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>31.78</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>429</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3383,16 +3362,16 @@
       <c r="B69" t="s">
         <v>13</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>26758</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>42.55</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>507</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3403,16 +3382,16 @@
       <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>30795</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>53.96</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>514</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="3">
         <v>17</v>
       </c>
     </row>
@@ -3423,16 +3402,16 @@
       <c r="B71" t="s">
         <v>15</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>37918</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>59.55</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>642</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="3">
         <v>17</v>
       </c>
     </row>
@@ -3443,16 +3422,16 @@
       <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>57195</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>66.349999999999994</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>887</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="3">
         <v>16</v>
       </c>
     </row>
@@ -3463,16 +3442,16 @@
       <c r="B73" t="s">
         <v>17</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>150163</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>82.07</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>2023</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="3">
         <v>13</v>
       </c>
     </row>
@@ -3483,16 +3462,16 @@
       <c r="B74" t="s">
         <v>6</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>168607</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>75.599999999999994</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>2414</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="3">
         <v>14</v>
       </c>
     </row>
@@ -3503,16 +3482,16 @@
       <c r="B75" t="s">
         <v>7</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>159134</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>62.93</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>2544</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="3">
         <v>16</v>
       </c>
     </row>
@@ -3523,16 +3502,16 @@
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>107167</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>31.99</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>2060</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3543,16 +3522,16 @@
       <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>57792</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>20.09</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>1174</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="3">
         <v>20</v>
       </c>
     </row>
@@ -3563,16 +3542,16 @@
       <c r="B78" t="s">
         <v>10</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>39384</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>15.05</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>778</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="3">
         <v>20</v>
       </c>
     </row>
@@ -3583,16 +3562,16 @@
       <c r="B79" t="s">
         <v>11</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>20051</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>16.77</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>392</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="3">
         <v>20</v>
       </c>
     </row>
@@ -3603,16 +3582,16 @@
       <c r="B80" t="s">
         <v>18</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>22795</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>20.37</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>452</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="3">
         <v>20</v>
       </c>
     </row>
@@ -3623,16 +3602,16 @@
       <c r="B81" t="s">
         <v>13</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>23206</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>24.46</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>465</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="3">
         <v>20</v>
       </c>
     </row>
@@ -3643,16 +3622,16 @@
       <c r="B82" t="s">
         <v>14</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>22413</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>31.45</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>433</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="3">
         <v>19</v>
       </c>
     </row>
@@ -3663,16 +3642,16 @@
       <c r="B83" t="s">
         <v>15</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>37158</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>52.3</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>625</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="3">
         <v>17</v>
       </c>
     </row>
@@ -3683,16 +3662,16 @@
       <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>61106</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>64.13</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>952</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="3">
         <v>16</v>
       </c>
     </row>
@@ -3703,16 +3682,16 @@
       <c r="B85" t="s">
         <v>17</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>161088</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>86.98</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>2159</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="3">
         <v>13</v>
       </c>
     </row>
